--- a/biology/Histoire de la zoologie et de la botanique/Liste_d'ornithologues/Liste_d'ornithologues.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Liste_d'ornithologues/Liste_d'ornithologues.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_d%27ornithologues</t>
+          <t>Liste_d'ornithologues</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vous pouvez consulter une liste plus complète d'articles sur des ornithologues ici.
 Un ornithologue est un spécialiste en Ornithologie.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_d%27ornithologues</t>
+          <t>Liste_d'ornithologues</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>A-D</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Humayun Abdulali (Inde)
 Dr. Abeillé Bordeaux, France
@@ -561,7 +575,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_d%27ornithologues</t>
+          <t>Liste_d'ornithologues</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -579,7 +593,9 @@
           <t>E-H</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>George Edwards (Royaume-Uni)
 Donald Sankey Farner (États-Unis)
@@ -614,7 +630,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_d%27ornithologues</t>
+          <t>Liste_d'ornithologues</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -632,7 +648,9 @@
           <t>I-L</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Johan Dalgas Frisch (Brésil)
 Thomas Claverhill Jerdon (Royaume-Uni, Inde)
@@ -655,7 +673,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_d%27ornithologues</t>
+          <t>Liste_d'ornithologues</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -673,7 +691,9 @@
           <t>M-P</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>William MacGillivray (Royaume-Uni)
 Charles Henry Tilson Marshall (Inde, Royaume-Uni)
@@ -706,7 +726,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_d%27ornithologues</t>
+          <t>Liste_d'ornithologues</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -724,7 +744,9 @@
           <t>Q-T</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Robert Ridgway (États-Unis)
 Sidney Dillon Ripley (États-Unis)
@@ -761,7 +783,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Liste_d%27ornithologues</t>
+          <t>Liste_d'ornithologues</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -779,7 +801,9 @@
           <t>U-Z</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Tatsuo Utagawa  Japon
 Louis Jean Pierre Vieillot  France
@@ -803,7 +827,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Liste_d%27ornithologues</t>
+          <t>Liste_d'ornithologues</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -821,7 +845,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">http://www.zoonomen.net/bio/ind.html
  Portail de l’histoire de la zoologie et de la botanique   Portail de l'ornithologie                    </t>
